--- a/result.xlsx
+++ b/result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>train</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>epoch=20</t>
+  </si>
+  <si>
+    <t>baseline</t>
   </si>
 </sst>
 </file>
@@ -412,7 +415,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -600,6 +603,18 @@
       </c>
     </row>
     <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8">
+        <v>91.68</v>
+      </c>
+      <c r="C8">
+        <v>77.69</v>
+      </c>
+      <c r="D8">
+        <v>67.81</v>
+      </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
